--- a/data/trans_orig/P36B03-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36B03-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4700</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1052</v>
+        <v>1086</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10937</v>
+        <v>12396</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008046340263124466</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00180068721269421</v>
+        <v>0.001859993822525501</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01872287547203652</v>
+        <v>0.02122165620050506</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -765,19 +765,19 @@
         <v>11510</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5789</v>
+        <v>5600</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21855</v>
+        <v>19878</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01247958109421551</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006276753576977993</v>
+        <v>0.006071132739354222</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02369486136772254</v>
+        <v>0.02155136135165156</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -786,19 +786,19 @@
         <v>16211</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9206</v>
+        <v>8664</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25173</v>
+        <v>26044</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01076057458743429</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006111057409858786</v>
+        <v>0.005750983594808454</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01670984548692947</v>
+        <v>0.01728802450940048</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>4693</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1758</v>
+        <v>1737</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10078</v>
+        <v>10572</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.008034496457411895</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003009466963025076</v>
+        <v>0.002974241490852961</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01725225966957721</v>
+        <v>0.0180983089907851</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -836,19 +836,19 @@
         <v>9132</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4221</v>
+        <v>4361</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16589</v>
+        <v>16245</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.009901468417890465</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.004576195142489979</v>
+        <v>0.004728596091661484</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01798614574166903</v>
+        <v>0.0176134593186471</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -857,19 +857,19 @@
         <v>13826</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8272</v>
+        <v>7836</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23389</v>
+        <v>21553</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.009177542723276012</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005490900528493185</v>
+        <v>0.005201794745710689</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01552546917430703</v>
+        <v>0.01430688924354052</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>25961</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17177</v>
+        <v>17300</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>36576</v>
+        <v>37222</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04444315746871996</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02940523434483948</v>
+        <v>0.02961636705836321</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06261574346815439</v>
+        <v>0.0637204914927141</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -907,19 +907,19 @@
         <v>32132</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>21975</v>
+        <v>22368</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>45000</v>
+        <v>44351</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03483785720416264</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0238256502666899</v>
+        <v>0.02425106310601048</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04878878395777403</v>
+        <v>0.04808617739766598</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>58</v>
@@ -928,19 +928,19 @@
         <v>58093</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>44776</v>
+        <v>44672</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>76167</v>
+        <v>74520</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0385623500263353</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02972246452768818</v>
+        <v>0.02965322960291581</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05056008075116955</v>
+        <v>0.04946677838685107</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>38466</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27768</v>
+        <v>27888</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51622</v>
+        <v>51983</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06585044603540106</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04753721730236371</v>
+        <v>0.0477417152505336</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08837321087000857</v>
+        <v>0.08899012008812046</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>61</v>
@@ -978,19 +978,19 @@
         <v>63689</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>49768</v>
+        <v>48963</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>82457</v>
+        <v>80744</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0690518329514356</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05395868108239245</v>
+        <v>0.05308554961907102</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08940089745753688</v>
+        <v>0.08754296323668444</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>100</v>
@@ -999,19 +999,19 @@
         <v>102155</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>83790</v>
+        <v>83432</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>123921</v>
+        <v>121954</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.067810482628035</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05561987895105695</v>
+        <v>0.05538211291482781</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08225873049064454</v>
+        <v>0.08095323655909732</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>510321</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>494067</v>
+        <v>492927</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>524927</v>
+        <v>525213</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8736255597753426</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8458008181205333</v>
+        <v>0.8438495925806996</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8986314026040205</v>
+        <v>0.8991207269752438</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>771</v>
@@ -1049,19 +1049,19 @@
         <v>805869</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>785069</v>
+        <v>785178</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>825202</v>
+        <v>824494</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8737292603322958</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8511776950270428</v>
+        <v>0.851295905855752</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8946897346704524</v>
+        <v>0.8939224564082719</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1271</v>
@@ -1070,19 +1070,19 @@
         <v>1316190</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1289359</v>
+        <v>1289395</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1342593</v>
+        <v>1342549</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8736890500349194</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.855878576458852</v>
+        <v>0.8559024779670144</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8912157456513083</v>
+        <v>0.8911860636152013</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>12331</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5607</v>
+        <v>6884</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21430</v>
+        <v>23337</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01143962393103209</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005201506508773687</v>
+        <v>0.006386625656727444</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0198813536901448</v>
+        <v>0.02165045348456093</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1195,19 +1195,19 @@
         <v>10530</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5091</v>
+        <v>5090</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18410</v>
+        <v>18028</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009956725447703698</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004814250654032053</v>
+        <v>0.004812699567419156</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0174080540507573</v>
+        <v>0.017047008437036</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -1216,19 +1216,19 @@
         <v>22860</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13420</v>
+        <v>14432</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>32967</v>
+        <v>33585</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01070524256244012</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00628429181688764</v>
+        <v>0.006758424339678309</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01543809784887561</v>
+        <v>0.01572726568368024</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>3612</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>920</v>
+        <v>844</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9293</v>
+        <v>8804</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.003350621226436907</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0008536500037940285</v>
+        <v>0.0007830362339793387</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.008621530966692442</v>
+        <v>0.00816779623549414</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -1266,19 +1266,19 @@
         <v>16395</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9610</v>
+        <v>9792</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>26788</v>
+        <v>26449</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01550291088630264</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.009087398533867277</v>
+        <v>0.009259374016482838</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02533012256069745</v>
+        <v>0.0250101037736624</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>19</v>
@@ -1287,19 +1287,19 @@
         <v>20007</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>12183</v>
+        <v>12340</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>31353</v>
+        <v>31230</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.009368845138775924</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005705276522435323</v>
+        <v>0.005778752938028153</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01468217949654044</v>
+        <v>0.01462466673868467</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>19179</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11289</v>
+        <v>10781</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>29696</v>
+        <v>29710</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0177925776026571</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0104736209548821</v>
+        <v>0.010002035803193</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02754982986486099</v>
+        <v>0.02756320756908805</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>41</v>
@@ -1337,19 +1337,19 @@
         <v>40334</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>29380</v>
+        <v>29893</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>55081</v>
+        <v>54129</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03813969759236227</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02778111426025431</v>
+        <v>0.02826701300667752</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05208458500316192</v>
+        <v>0.05118427460649697</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>59</v>
@@ -1358,19 +1358,19 @@
         <v>59513</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>45810</v>
+        <v>46091</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>75301</v>
+        <v>76507</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02786915802467346</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02145215626974108</v>
+        <v>0.02158402818215586</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03526258107902033</v>
+        <v>0.03582720271396828</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>68390</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55712</v>
+        <v>53940</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85135</v>
+        <v>86227</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06344776793939533</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05168589481449806</v>
+        <v>0.0500424717377201</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07898259249917405</v>
+        <v>0.0799960498863883</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -1408,19 +1408,19 @@
         <v>68778</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>52474</v>
+        <v>54084</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>85226</v>
+        <v>87443</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0650355840974208</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04961886211936616</v>
+        <v>0.0511409912510571</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08058880757050996</v>
+        <v>0.08268512429969328</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>135</v>
@@ -1429,19 +1429,19 @@
         <v>137168</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>115410</v>
+        <v>115145</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>160654</v>
+        <v>163842</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06423410808089033</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05404548916873467</v>
+        <v>0.0539213987502293</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07523263882707296</v>
+        <v>0.0767253251053001</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>974383</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>954717</v>
+        <v>951823</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>991247</v>
+        <v>992595</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9039694093004785</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8857240843692049</v>
+        <v>0.8830399745202112</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9196148724277978</v>
+        <v>0.9208653804368608</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>897</v>
@@ -1479,19 +1479,19 @@
         <v>921502</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>898372</v>
+        <v>897776</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>942800</v>
+        <v>942238</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8713650819762105</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8494940334996448</v>
+        <v>0.8489297798460949</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8915047685284229</v>
+        <v>0.890973008160889</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1849</v>
@@ -1500,19 +1500,19 @@
         <v>1895885</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1866442</v>
+        <v>1863299</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1921734</v>
+        <v>1923033</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8878226461932202</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8740349459715998</v>
+        <v>0.8725629453072394</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8999276670187254</v>
+        <v>0.9005359989175946</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>2700</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7375</v>
+        <v>7581</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002407074729631354</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0007242041839234969</v>
+        <v>0.0007230800307719052</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.006575660414884169</v>
+        <v>0.006759086243572045</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1625,19 +1625,19 @@
         <v>9655</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4856</v>
+        <v>4753</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18303</v>
+        <v>18869</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00972413975672712</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004891006977327981</v>
+        <v>0.004787369576212052</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01843391227315609</v>
+        <v>0.01900435507414863</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -1646,19 +1646,19 @@
         <v>12355</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6605</v>
+        <v>6152</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21012</v>
+        <v>21431</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005842900995877038</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003123623490433633</v>
+        <v>0.002909604547295405</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.009937247202924876</v>
+        <v>0.01013517925432938</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>7479</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2995</v>
+        <v>3748</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14014</v>
+        <v>14469</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.006668174767903062</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.002670625954793832</v>
+        <v>0.003341862450071875</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01249479740484258</v>
+        <v>0.0129004587387028</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -1696,19 +1696,19 @@
         <v>14400</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7842</v>
+        <v>8495</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>22850</v>
+        <v>23265</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01450375077360824</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.007897958704991636</v>
+        <v>0.00855544069331237</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02301343501304364</v>
+        <v>0.02343158118662509</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>22</v>
@@ -1717,19 +1717,19 @@
         <v>21879</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13725</v>
+        <v>14252</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>32914</v>
+        <v>32733</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01034747483587743</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006491072326331659</v>
+        <v>0.006740016019311013</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01556604867151761</v>
+        <v>0.01548038190395488</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>23567</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14809</v>
+        <v>14444</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>34961</v>
+        <v>35741</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02101226071051736</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01320316148618122</v>
+        <v>0.01287830986616733</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03117104998856958</v>
+        <v>0.03186596676600767</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>44</v>
@@ -1767,19 +1767,19 @@
         <v>44777</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>32132</v>
+        <v>33016</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>58345</v>
+        <v>59466</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04509852226405268</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03236281715525667</v>
+        <v>0.03325234872980795</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05876298041345768</v>
+        <v>0.05989241337991851</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>65</v>
@@ -1788,19 +1788,19 @@
         <v>68345</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>53144</v>
+        <v>53705</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>85427</v>
+        <v>86036</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03232228867867759</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0251336601469542</v>
+        <v>0.02539874295485974</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04040101424001923</v>
+        <v>0.04068907538317337</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>54407</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>41219</v>
+        <v>39733</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>70660</v>
+        <v>69695</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04850852353134812</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03675075359860646</v>
+        <v>0.03542507734025969</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0629998676102254</v>
+        <v>0.06213946290896773</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>70</v>
@@ -1838,19 +1838,19 @@
         <v>70369</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>56144</v>
+        <v>54964</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>90649</v>
+        <v>87622</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07087402262540185</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05654641326926047</v>
+        <v>0.05535808119153765</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09129914609410601</v>
+        <v>0.08825069861167603</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>126</v>
@@ -1859,19 +1859,19 @@
         <v>124776</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>104305</v>
+        <v>102526</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>148723</v>
+        <v>145601</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05901054434987079</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04932926576526047</v>
+        <v>0.04848752594449777</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07033558011795973</v>
+        <v>0.06885933374297264</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>1033441</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1014590</v>
+        <v>1014152</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1051479</v>
+        <v>1051015</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9214039662606001</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9045968581490902</v>
+        <v>0.9042063092124977</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9374861140518774</v>
+        <v>0.9370725622232893</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>844</v>
@@ -1909,19 +1909,19 @@
         <v>853678</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>831391</v>
+        <v>830447</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>874164</v>
+        <v>875029</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8597995645802101</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8373524784638299</v>
+        <v>0.8364018807348569</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8804322831489938</v>
+        <v>0.8813037913321692</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1859</v>
@@ -1930,19 +1930,19 @@
         <v>1887119</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1857777</v>
+        <v>1853887</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1913195</v>
+        <v>1913114</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8924767911396971</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8785998946256167</v>
+        <v>0.8767604317521879</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9048089935270955</v>
+        <v>0.9047705569964879</v>
       </c>
     </row>
     <row r="21">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4464</v>
+        <v>4167</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.001835994544936162</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.009983130647518754</v>
+        <v>0.009317723190791114</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2055,19 +2055,19 @@
         <v>4109</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9478</v>
+        <v>10350</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01204352129524882</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002914159894101699</v>
+        <v>0.002932286956520206</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02778141479923251</v>
+        <v>0.03033882809340057</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -2076,19 +2076,19 @@
         <v>4930</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1818</v>
+        <v>1957</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>11429</v>
+        <v>11652</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.006253253988635125</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00230651633100541</v>
+        <v>0.002482435735831758</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01449751220999697</v>
+        <v>0.01477987759310019</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>4920</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1598</v>
+        <v>1910</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14002</v>
+        <v>13411</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01100096614582723</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.003573353487078749</v>
+        <v>0.004271957673109867</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0313112214155547</v>
+        <v>0.02998931721604758</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6072</v>
+        <v>7104</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.005894759096704629</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01779889380607807</v>
+        <v>0.02082213773375938</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6</v>
@@ -2147,19 +2147,19 @@
         <v>6931</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2096</v>
+        <v>3006</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>14131</v>
+        <v>15529</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.008791278935501953</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.002658529169638426</v>
+        <v>0.00381239370232115</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01792410716356494</v>
+        <v>0.01969732864064005</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>9948</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4559</v>
+        <v>4261</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19125</v>
+        <v>19109</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02224492846868579</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01019487064102746</v>
+        <v>0.009527854987566135</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04276559868795925</v>
+        <v>0.04273060551306958</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -2197,19 +2197,19 @@
         <v>9848</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5226</v>
+        <v>5304</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17668</v>
+        <v>17034</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02886711325607597</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01531747437782531</v>
+        <v>0.01554753110395238</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05178880760333209</v>
+        <v>0.04992910276319352</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>19</v>
@@ -2218,19 +2218,19 @@
         <v>19796</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>12511</v>
+        <v>11818</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>30214</v>
+        <v>29448</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02511064795250912</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01586917677272738</v>
+        <v>0.01499123046532184</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03832535632997083</v>
+        <v>0.03735327576509077</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>33249</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22844</v>
+        <v>23756</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>45699</v>
+        <v>46200</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07434991157336918</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05108159554258868</v>
+        <v>0.0531218811726814</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1021889934595299</v>
+        <v>0.103308742328728</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>24</v>
@@ -2268,19 +2268,19 @@
         <v>23491</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15660</v>
+        <v>15042</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>34591</v>
+        <v>33939</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06885532083853536</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04590138937839346</v>
+        <v>0.04409172122099085</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1013916673439701</v>
+        <v>0.09948165824224586</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>57</v>
@@ -2289,19 +2289,19 @@
         <v>56740</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>44409</v>
+        <v>44785</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>73347</v>
+        <v>72800</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07197215314016575</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0563303807287797</v>
+        <v>0.05680845279666061</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09303786926532782</v>
+        <v>0.09234365481020587</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>398262</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>383227</v>
+        <v>382606</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>410395</v>
+        <v>411214</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8905681992671817</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.856946700921287</v>
+        <v>0.8555595185744109</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9176989960037026</v>
+        <v>0.9195312285212672</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>299</v>
@@ -2339,19 +2339,19 @@
         <v>301699</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>287864</v>
+        <v>289278</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>311094</v>
+        <v>312779</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8843392855134352</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8437843331406996</v>
+        <v>0.8479290212126124</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9118752521848464</v>
+        <v>0.9168163116535791</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>688</v>
@@ -2360,19 +2360,19 @@
         <v>699962</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>680890</v>
+        <v>683110</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>716789</v>
+        <v>716929</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.887872665983188</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8636814153107114</v>
+        <v>0.8664977973535006</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9092177958744202</v>
+        <v>0.9093954611243096</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>20552</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>12656</v>
+        <v>12730</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>32737</v>
+        <v>31708</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.006361128007673521</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00391710989720751</v>
+        <v>0.003940310824976488</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01013276958251519</v>
+        <v>0.009814173255310208</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>34</v>
@@ -2485,19 +2485,19 @@
         <v>35804</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>25659</v>
+        <v>24527</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>49825</v>
+        <v>50086</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01080403631858552</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007742872884352958</v>
+        <v>0.00740121032259851</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01503521657338647</v>
+        <v>0.0151138618417546</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>53</v>
@@ -2506,19 +2506,19 @@
         <v>56355</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>43145</v>
+        <v>43731</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>74381</v>
+        <v>74833</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.008610781535449448</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006592289840189861</v>
+        <v>0.006681872313844741</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01136494580968232</v>
+        <v>0.01143408632092476</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>20704</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12880</v>
+        <v>12640</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>32541</v>
+        <v>32210</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.006408110560818022</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.003986662974597888</v>
+        <v>0.003912183852328581</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01007205158765411</v>
+        <v>0.009969700184336898</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>41</v>
@@ -2556,19 +2556,19 @@
         <v>41939</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>30145</v>
+        <v>30843</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>57043</v>
+        <v>58435</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01265541537018909</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.009096471565422173</v>
+        <v>0.009307163030399766</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01721321784435706</v>
+        <v>0.01763319858380916</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>62</v>
@@ -2577,19 +2577,19 @@
         <v>62642</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>46890</v>
+        <v>47216</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>81845</v>
+        <v>78210</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.009571414937137281</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.007164554992639104</v>
+        <v>0.007214348901309651</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01250545562758008</v>
+        <v>0.01195006113504104</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>78655</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>60938</v>
+        <v>62490</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>97317</v>
+        <v>99141</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02434506718500051</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01886153934729449</v>
+        <v>0.01934165942449271</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03012132144712588</v>
+        <v>0.03068597897667063</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>127</v>
@@ -2627,19 +2627,19 @@
         <v>127092</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>106809</v>
+        <v>106388</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>152919</v>
+        <v>152019</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03835106804072751</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03223039381528633</v>
+        <v>0.03210359214493819</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04614467132725956</v>
+        <v>0.04587297509727564</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>201</v>
@@ -2648,19 +2648,19 @@
         <v>205747</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>177955</v>
+        <v>177793</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>237472</v>
+        <v>234950</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03143696443566672</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02719059081569809</v>
+        <v>0.02716579629438308</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03628438717520072</v>
+        <v>0.03589909706681736</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>194512</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>167793</v>
+        <v>168632</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>221359</v>
+        <v>221261</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.06020499825511983</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05193501100978132</v>
+        <v>0.05219456137713267</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0685147265393839</v>
+        <v>0.06848429219788608</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>220</v>
@@ -2698,19 +2698,19 @@
         <v>226326</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>199739</v>
+        <v>199928</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>258425</v>
+        <v>257399</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06829587928958193</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06027298576904574</v>
+        <v>0.06032999492210102</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07798190759185009</v>
+        <v>0.07767227477925011</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>418</v>
@@ -2719,19 +2719,19 @@
         <v>420838</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>380024</v>
+        <v>386007</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>459214</v>
+        <v>462416</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06430179201908043</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05806550654768696</v>
+        <v>0.05897972982550016</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07016543103113586</v>
+        <v>0.07065464261815584</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>2916407</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2884456</v>
+        <v>2879264</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2953186</v>
+        <v>2950723</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9026806959913881</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8927912745348913</v>
+        <v>0.8911843228756302</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.914064572079016</v>
+        <v>0.9133021097779735</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2811</v>
@@ -2769,19 +2769,19 @@
         <v>2882748</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2840429</v>
+        <v>2840260</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2918436</v>
+        <v>2918842</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8698936009809159</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8571233622564759</v>
+        <v>0.8570724058029686</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8806626873429148</v>
+        <v>0.8807852321342838</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5667</v>
@@ -2790,19 +2790,19 @@
         <v>5799155</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5740675</v>
+        <v>5748843</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5849368</v>
+        <v>5845764</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8860790470726662</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8771435563483754</v>
+        <v>0.8783916480268718</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.893751295690335</v>
+        <v>0.8932005434502226</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>8709</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4632</v>
+        <v>3766</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17492</v>
+        <v>17187</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008342261776496782</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004437532580078786</v>
+        <v>0.003607131304232694</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01675625985006588</v>
+        <v>0.01646382115826235</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -3155,19 +3155,19 @@
         <v>13898</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8089</v>
+        <v>8009</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23459</v>
+        <v>23234</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01241007826636848</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007222654680078665</v>
+        <v>0.007151784304019842</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02094711160368573</v>
+        <v>0.02074613283568913</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -3176,19 +3176,19 @@
         <v>22607</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14032</v>
+        <v>14613</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35368</v>
+        <v>34905</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01044759964291158</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006484674845204683</v>
+        <v>0.006753188865874917</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01634500996158124</v>
+        <v>0.0161309870121564</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>4334</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1370</v>
+        <v>1377</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11029</v>
+        <v>11899</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.004152058693942396</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001312471178123426</v>
+        <v>0.001318736774178574</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01056473125461451</v>
+        <v>0.01139842133388857</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -3226,19 +3226,19 @@
         <v>10085</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4303</v>
+        <v>4866</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18065</v>
+        <v>19128</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.009005393798015196</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.003842498370266875</v>
+        <v>0.004344722754967955</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01613079255466178</v>
+        <v>0.0170800383827867</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -3247,19 +3247,19 @@
         <v>14420</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8020</v>
+        <v>7782</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>24684</v>
+        <v>24701</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.006663949335628393</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003706149715760113</v>
+        <v>0.003596196878245567</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01140742385885469</v>
+        <v>0.01141515539369074</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>24126</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15038</v>
+        <v>14955</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>37141</v>
+        <v>36837</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02311063275161433</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01440516315819004</v>
+        <v>0.01432568881558694</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03557761610555996</v>
+        <v>0.03528633015256656</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>33</v>
@@ -3297,19 +3297,19 @@
         <v>35794</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25194</v>
+        <v>25611</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>50075</v>
+        <v>50490</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03196121976314934</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02249623792985026</v>
+        <v>0.02286842271309686</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04471263272833391</v>
+        <v>0.04508320487440284</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>54</v>
@@ -3318,19 +3318,19 @@
         <v>59920</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>44684</v>
+        <v>43119</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>77873</v>
+        <v>77470</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02769133987588566</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02065012337853519</v>
+        <v>0.01992700901584632</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03598778477815745</v>
+        <v>0.0358017094395471</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>41329</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28848</v>
+        <v>29372</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54357</v>
+        <v>54607</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03958952676166885</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02763346784430775</v>
+        <v>0.02813601885017043</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0520692557705986</v>
+        <v>0.05230901524141515</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -3368,19 +3368,19 @@
         <v>55088</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41194</v>
+        <v>41243</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>71988</v>
+        <v>73460</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04918927050382978</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03678251684126251</v>
+        <v>0.03682684249725041</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06427954363995536</v>
+        <v>0.06559362127511557</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>86</v>
@@ -3389,19 +3389,19 @@
         <v>96417</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>78719</v>
+        <v>76625</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>118363</v>
+        <v>117757</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04455796721579745</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03637899543171644</v>
+        <v>0.03541129542120813</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05469983942359317</v>
+        <v>0.05441979137455714</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>965437</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>946639</v>
+        <v>946725</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>982474</v>
+        <v>982914</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9248055200162777</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9067990219222044</v>
+        <v>0.9068813450434865</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9411254138838056</v>
+        <v>0.9415471408358764</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>929</v>
@@ -3439,19 +3439,19 @@
         <v>1005062</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>983874</v>
+        <v>983140</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1026416</v>
+        <v>1025305</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8974340376686372</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8785153268744201</v>
+        <v>0.8778598523119479</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9165016414532315</v>
+        <v>0.9155098610735404</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1835</v>
@@ -3460,19 +3460,19 @@
         <v>1970498</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1939555</v>
+        <v>1941346</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1997744</v>
+        <v>1995802</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.910639143929777</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8963390525956794</v>
+        <v>0.8971668180998957</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9232305269650598</v>
+        <v>0.9223328231980419</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>4430</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1259</v>
+        <v>1233</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11709</v>
+        <v>10729</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004539234297517866</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001289672445520296</v>
+        <v>0.001263142086485259</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0119978881148131</v>
+        <v>0.01099376364429543</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -3585,19 +3585,19 @@
         <v>9488</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4561</v>
+        <v>4398</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18177</v>
+        <v>18005</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008670308753446754</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004167783691422288</v>
+        <v>0.004019046057042848</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01661122138975728</v>
+        <v>0.01645408400614563</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -3606,19 +3606,19 @@
         <v>13917</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7674</v>
+        <v>7440</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22497</v>
+        <v>24137</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006722865107954242</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003706974323917407</v>
+        <v>0.003593677134998199</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01086702787568685</v>
+        <v>0.01165937088231896</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>4077</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1984</v>
+        <v>1012</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11147</v>
+        <v>9247</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004177321530322735</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002032476248782827</v>
+        <v>0.001037247376849786</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01142210338879264</v>
+        <v>0.009474953010966741</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -3656,19 +3656,19 @@
         <v>7400</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3150</v>
+        <v>3334</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14874</v>
+        <v>15357</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.006762185652425171</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002878315058158049</v>
+        <v>0.003046350195962747</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01359308295876306</v>
+        <v>0.01403452720674387</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -3677,19 +3677,19 @@
         <v>11476</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6038</v>
+        <v>6135</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>20457</v>
+        <v>19520</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005543646199129821</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00291673192634237</v>
+        <v>0.002963447024059035</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.009881788478939143</v>
+        <v>0.009429083308166145</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>9368</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4177</v>
+        <v>4225</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16897</v>
+        <v>17813</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.009598902681640641</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.004280002586988277</v>
+        <v>0.004329535230679621</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01731384233251249</v>
+        <v>0.0182523362388697</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>39</v>
@@ -3727,19 +3727,19 @@
         <v>43607</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>30743</v>
+        <v>32000</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>57408</v>
+        <v>58875</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03985084736429462</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02809468008013305</v>
+        <v>0.02924312944022884</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05246280230018147</v>
+        <v>0.05380303275932806</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>48</v>
@@ -3748,19 +3748,19 @@
         <v>52975</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>39156</v>
+        <v>39809</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>69829</v>
+        <v>68675</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02558967679849361</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01891459271014596</v>
+        <v>0.01922982901871044</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03373099847599715</v>
+        <v>0.03317355049796705</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>29571</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19537</v>
+        <v>19667</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>43398</v>
+        <v>41996</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03030139944775553</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02001931970997801</v>
+        <v>0.02015217517284039</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0444693496925189</v>
+        <v>0.04303299128213164</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -3798,19 +3798,19 @@
         <v>64430</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49747</v>
+        <v>49699</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>81740</v>
+        <v>80424</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05888009312582693</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04546158276844231</v>
+        <v>0.04541784561333668</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07469919677136476</v>
+        <v>0.07349621702977507</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>89</v>
@@ -3819,19 +3819,19 @@
         <v>94002</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>76779</v>
+        <v>73903</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>115595</v>
+        <v>111818</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04540771542032202</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03708826199696485</v>
+        <v>0.03569923038392796</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05583831750593328</v>
+        <v>0.05401390149473765</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>928459</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>913421</v>
+        <v>912579</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>940789</v>
+        <v>940836</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9513831420427632</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9359738857953196</v>
+        <v>0.9351116889076343</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9640179330647787</v>
+        <v>0.9640657232758688</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>904</v>
@@ -3869,19 +3869,19 @@
         <v>969337</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>946637</v>
+        <v>946044</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>989556</v>
+        <v>991136</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8858365651040065</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8650917953935053</v>
+        <v>0.864550225942683</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.904313408479766</v>
+        <v>0.9057570396682945</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1782</v>
@@ -3890,19 +3890,19 @@
         <v>1897796</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1868600</v>
+        <v>1872382</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1922272</v>
+        <v>1921800</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9167360964741003</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9026331141024202</v>
+        <v>0.9044596336257881</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9285595892339529</v>
+        <v>0.9283311845387568</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>6744</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1940</v>
+        <v>2036</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15855</v>
+        <v>15303</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007628246773973168</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002194171797962314</v>
+        <v>0.002303453698480618</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01793417449025013</v>
+        <v>0.01730936546662171</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -4015,19 +4015,19 @@
         <v>6308</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2174</v>
+        <v>2378</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13070</v>
+        <v>13717</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007210246062133819</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002485251737857488</v>
+        <v>0.002718538369468346</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0149402326658715</v>
+        <v>0.01567982622390089</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -4036,19 +4036,19 @@
         <v>13052</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6680</v>
+        <v>6723</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24274</v>
+        <v>23974</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007420349326133532</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003797949179533872</v>
+        <v>0.003822526720212472</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01380055861962639</v>
+        <v>0.01363044876670682</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>3929</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11554</v>
+        <v>12425</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.004443980708050372</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001011987042501798</v>
+        <v>0.001016617726629881</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01306854411010828</v>
+        <v>0.01405439316434584</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -4086,19 +4086,19 @@
         <v>11730</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5938</v>
+        <v>5709</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20497</v>
+        <v>21319</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01340927475897944</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0067879880256496</v>
+        <v>0.006525938818325658</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02343062361057056</v>
+        <v>0.02436976623347555</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -4107,19 +4107,19 @@
         <v>15659</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8671</v>
+        <v>8565</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>26289</v>
+        <v>26918</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.008902972522007757</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.004929551562233286</v>
+        <v>0.004869594451283083</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01494631776289831</v>
+        <v>0.01530398565886099</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>18173</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11291</v>
+        <v>11406</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>27948</v>
+        <v>27970</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02055524076340348</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01277094118217276</v>
+        <v>0.01290114573813511</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03161277272953632</v>
+        <v>0.03163729067635491</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>25</v>
@@ -4157,19 +4157,19 @@
         <v>26825</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17407</v>
+        <v>17661</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>39248</v>
+        <v>38255</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03066359172873532</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01989776086153721</v>
+        <v>0.0201888864817007</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04486460336343646</v>
+        <v>0.04373006883775394</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>44</v>
@@ -4178,19 +4178,19 @@
         <v>44997</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>32426</v>
+        <v>33052</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>59467</v>
+        <v>61037</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02558274504279207</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01843572901994648</v>
+        <v>0.01879155162606081</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03380925604917483</v>
+        <v>0.03470185022323372</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>39333</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26284</v>
+        <v>27181</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>53792</v>
+        <v>54199</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04448953080082559</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02973059467308922</v>
+        <v>0.03074424438661943</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06084431320040543</v>
+        <v>0.06130481385881231</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>52</v>
@@ -4228,19 +4228,19 @@
         <v>54787</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>40492</v>
+        <v>42512</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>69585</v>
+        <v>69706</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06262803106728766</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04628714010931154</v>
+        <v>0.0485955406158426</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07954387211795901</v>
+        <v>0.0796815696943511</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>87</v>
@@ -4249,19 +4249,19 @@
         <v>94120</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>74650</v>
+        <v>74927</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>115906</v>
+        <v>115762</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05351092192822946</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04244150774767202</v>
+        <v>0.04259877793735679</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06589738607676844</v>
+        <v>0.06581556248107777</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>815908</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>798883</v>
+        <v>798655</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>832490</v>
+        <v>833109</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9228830009537474</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.903625920575202</v>
+        <v>0.9033679541867492</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9416394545721914</v>
+        <v>0.9423393356056953</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>727</v>
@@ -4299,19 +4299,19 @@
         <v>775154</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>754536</v>
+        <v>752659</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>793636</v>
+        <v>794023</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8860888563828637</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8625195621787654</v>
+        <v>0.8603739036861405</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9072163462832509</v>
+        <v>0.9076581643931436</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1494</v>
@@ -4320,19 +4320,19 @@
         <v>1591061</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1565163</v>
+        <v>1562860</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1616410</v>
+        <v>1616751</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9045830111808372</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8898590412040456</v>
+        <v>0.8885497589805516</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9189949196627325</v>
+        <v>0.9191888201348082</v>
       </c>
     </row>
     <row r="21">
@@ -4427,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5278</v>
+        <v>5225</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002050686041624658</v>
@@ -4436,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01049293312883238</v>
+        <v>0.01038758819963231</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -4445,19 +4445,19 @@
         <v>2919</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>952</v>
+        <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8787</v>
+        <v>7808</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006447004309087023</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002101858446279122</v>
+        <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01940776865030253</v>
+        <v>0.01724546447350577</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -4466,19 +4466,19 @@
         <v>3950</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10569</v>
+        <v>9919</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004133189359437517</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001038003173711197</v>
+        <v>0.001030203973458048</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01105804538717351</v>
+        <v>0.01037840378732629</v>
       </c>
     </row>
     <row r="23">
@@ -4508,19 +4508,19 @@
         <v>5255</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2116</v>
+        <v>1927</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12135</v>
+        <v>11539</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01160700041105969</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.004673576343284737</v>
+        <v>0.00425568190490215</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02680299137415798</v>
+        <v>0.02548716279378316</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5</v>
@@ -4529,19 +4529,19 @@
         <v>5255</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2116</v>
+        <v>1988</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>12167</v>
+        <v>12253</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.005498149905293212</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.002213978705627161</v>
+        <v>0.002080075531030103</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01273021272501837</v>
+        <v>0.01282063719579309</v>
       </c>
     </row>
     <row r="24">
@@ -4558,19 +4558,19 @@
         <v>14871</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8143</v>
+        <v>8367</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24365</v>
+        <v>25503</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02956410525058048</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01618719478301379</v>
+        <v>0.01663393250280552</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04843634650357626</v>
+        <v>0.0506995539234105</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>15</v>
@@ -4579,19 +4579,19 @@
         <v>16104</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>9643</v>
+        <v>8446</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>26043</v>
+        <v>24871</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03557127208277536</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02129845475774578</v>
+        <v>0.01865653473443317</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0575240142851331</v>
+        <v>0.05493576591603454</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>29</v>
@@ -4600,19 +4600,19 @@
         <v>30976</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>20753</v>
+        <v>21066</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>45281</v>
+        <v>43554</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03240965557192293</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02171378106691766</v>
+        <v>0.02204154791148128</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04737673974354871</v>
+        <v>0.04557031172499211</v>
       </c>
     </row>
     <row r="25">
@@ -4629,19 +4629,19 @@
         <v>18819</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11593</v>
+        <v>10806</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33905</v>
+        <v>30525</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03741110310929079</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02304583464796378</v>
+        <v>0.02148289127710887</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06740258227384918</v>
+        <v>0.06068346063451393</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -4650,19 +4650,19 @@
         <v>13151</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7286</v>
+        <v>7072</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22197</v>
+        <v>21188</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02904773633799031</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01609289227255753</v>
+        <v>0.01562006095496841</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04902843675888805</v>
+        <v>0.04679958577174873</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>29</v>
@@ -4671,19 +4671,19 @@
         <v>31970</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>21421</v>
+        <v>21774</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>45186</v>
+        <v>45535</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03344943837309044</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02241275074549055</v>
+        <v>0.02278179964684968</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04727780330772013</v>
+        <v>0.04764305621444103</v>
       </c>
     </row>
     <row r="26">
@@ -4700,19 +4700,19 @@
         <v>468301</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>454352</v>
+        <v>452311</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>478554</v>
+        <v>479182</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9309741055985041</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9032436107796914</v>
+        <v>0.8991845769633414</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9513559413646627</v>
+        <v>0.9526040983806672</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>376</v>
@@ -4721,19 +4721,19 @@
         <v>415307</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>402486</v>
+        <v>402134</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>425587</v>
+        <v>426064</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9173269868590876</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.889007285452055</v>
+        <v>0.8882304269339666</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9400337741896025</v>
+        <v>0.9410874413921672</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>806</v>
@@ -4742,19 +4742,19 @@
         <v>883607</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>863711</v>
+        <v>865651</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>898501</v>
+        <v>898543</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9245095667902559</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9036920075279616</v>
+        <v>0.9057217734145415</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9400929556095081</v>
+        <v>0.9401368448422286</v>
       </c>
     </row>
     <row r="27">
@@ -4846,19 +4846,19 @@
         <v>20914</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>13321</v>
+        <v>12548</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>33481</v>
+        <v>33231</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.00613869207435474</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.003909945964964934</v>
+        <v>0.003682969134589907</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.009827141654670014</v>
+        <v>0.009753841045566975</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>31</v>
@@ -4867,19 +4867,19 @@
         <v>32612</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>22582</v>
+        <v>22744</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>45498</v>
+        <v>46112</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.009208022374285496</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.006376075854391509</v>
+        <v>0.006421598706439736</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01284635670072765</v>
+        <v>0.013019569850375</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>49</v>
@@ -4888,19 +4888,19 @@
         <v>53527</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>38932</v>
+        <v>40879</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>71314</v>
+        <v>70160</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.007703125008507022</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.005602760360979359</v>
+        <v>0.005882993247294306</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01026297575897023</v>
+        <v>0.01009682834907632</v>
       </c>
     </row>
     <row r="29">
@@ -4917,19 +4917,19 @@
         <v>12340</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6423</v>
+        <v>6251</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>21762</v>
+        <v>21869</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.003622011940617613</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.001885361437569073</v>
+        <v>0.001834738107644158</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.006387615564036229</v>
+        <v>0.006418928233581478</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>31</v>
@@ -4938,19 +4938,19 @@
         <v>34470</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>23444</v>
+        <v>23386</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>49471</v>
+        <v>48161</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.009732641031019385</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.006619451731855735</v>
+        <v>0.00660307688963106</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01396789969130079</v>
+        <v>0.01359828489037018</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>42</v>
@@ -4959,19 +4959,19 @@
         <v>46810</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>34568</v>
+        <v>33953</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>64625</v>
+        <v>64176</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.006736590191654721</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004974760960823752</v>
+        <v>0.004886216486727978</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.009300340505874817</v>
+        <v>0.009235781242761015</v>
       </c>
     </row>
     <row r="30">
@@ -4988,19 +4988,19 @@
         <v>66538</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>52640</v>
+        <v>51087</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>84385</v>
+        <v>84824</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01952997965283796</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01545090063045973</v>
+        <v>0.01499502508092776</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02476853698056766</v>
+        <v>0.02489724514154578</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>112</v>
@@ -5009,19 +5009,19 @@
         <v>122331</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>102145</v>
+        <v>97346</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>147715</v>
+        <v>143670</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03453977641649168</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02884040786741073</v>
+        <v>0.02748535665410315</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0417071146722266</v>
+        <v>0.04056496594153962</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>175</v>
@@ -5030,19 +5030,19 @@
         <v>188868</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>163479</v>
+        <v>162741</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>220575</v>
+        <v>220137</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02718044998264312</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02352668599452296</v>
+        <v>0.02342042263729844</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03174351562132856</v>
+        <v>0.031680427532815</v>
       </c>
     </row>
     <row r="31">
@@ -5059,19 +5059,19 @@
         <v>129051</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>106887</v>
+        <v>107515</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>156751</v>
+        <v>154585</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03787887645798816</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03137315750444319</v>
+        <v>0.03155749939924303</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04600917796001137</v>
+        <v>0.04537334406624138</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>173</v>
@@ -5080,19 +5080,19 @@
         <v>187457</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>162275</v>
+        <v>162732</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>218096</v>
+        <v>218019</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05292806287120412</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04581809968089832</v>
+        <v>0.04594694115811676</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06157898026398018</v>
+        <v>0.06155716449431423</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>291</v>
@@ -5101,19 +5101,19 @@
         <v>316508</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>280891</v>
+        <v>283673</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>355860</v>
+        <v>355875</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04554942363160556</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04042367271776574</v>
+        <v>0.0408240023313221</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05121261010728238</v>
+        <v>0.05121480923268727</v>
       </c>
     </row>
     <row r="32">
@@ -5130,19 +5130,19 @@
         <v>3178104</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3143882</v>
+        <v>3143657</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3207472</v>
+        <v>3207743</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9328304398742016</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9227856908135849</v>
+        <v>0.9227198055045487</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9414505531673898</v>
+        <v>0.9415299094178999</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2936</v>
@@ -5151,19 +5151,19 @@
         <v>3164860</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3121822</v>
+        <v>3124509</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3199009</v>
+        <v>3202692</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8935914973069993</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8814397358531662</v>
+        <v>0.8821984586565921</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9032334191336152</v>
+        <v>0.9042733581503325</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5917</v>
@@ -5172,19 +5172,19 @@
         <v>6342964</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6295041</v>
+        <v>6291765</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6386643</v>
+        <v>6390208</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9128304111855896</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9059337762599289</v>
+        <v>0.9054623092327612</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.919116473256513</v>
+        <v>0.9196294795579459</v>
       </c>
     </row>
     <row r="33">
@@ -5516,19 +5516,19 @@
         <v>14502</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7131</v>
+        <v>7512</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25661</v>
+        <v>24816</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01287825116037902</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006332654293188755</v>
+        <v>0.006670877609730938</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02278853748237802</v>
+        <v>0.02203829610514924</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -5537,19 +5537,19 @@
         <v>12082</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5769</v>
+        <v>6699</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20740</v>
+        <v>22698</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009599459446608376</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004583716227056656</v>
+        <v>0.005322360063981475</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0164789767219447</v>
+        <v>0.01803495545791051</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -5558,19 +5558,19 @@
         <v>26583</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16850</v>
+        <v>18394</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39563</v>
+        <v>40369</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0111477506259478</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007066260373621659</v>
+        <v>0.007713515160365277</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01659114498346426</v>
+        <v>0.01692899977201734</v>
       </c>
     </row>
     <row r="5">
@@ -5587,19 +5587,19 @@
         <v>10008</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4873</v>
+        <v>4459</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17817</v>
+        <v>18224</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.008887529455200591</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00432777699720718</v>
+        <v>0.003959779969236821</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01582254036268699</v>
+        <v>0.0161839208083054</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -5608,19 +5608,19 @@
         <v>8963</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4027</v>
+        <v>4206</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16496</v>
+        <v>16617</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.007121480058852544</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.003199884039202949</v>
+        <v>0.00334154820111445</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01310734683681924</v>
+        <v>0.01320303913409708</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -5629,19 +5629,19 @@
         <v>18971</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11512</v>
+        <v>11075</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29283</v>
+        <v>29337</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0079554332164012</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004827697809708425</v>
+        <v>0.004644182050924461</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01227987262826628</v>
+        <v>0.01230242718574764</v>
       </c>
     </row>
     <row r="6">
@@ -5658,19 +5658,19 @@
         <v>27429</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17780</v>
+        <v>18176</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>40161</v>
+        <v>41619</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02435832950968895</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01578946114284836</v>
+        <v>0.01614104029397907</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03566570104948885</v>
+        <v>0.03696041376537863</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>39</v>
@@ -5679,19 +5679,19 @@
         <v>40455</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>29673</v>
+        <v>27801</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>55918</v>
+        <v>54074</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03214405816688772</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02357683758897346</v>
+        <v>0.02208932703220594</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04442983906282965</v>
+        <v>0.04296500465184559</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>63</v>
@@ -5700,19 +5700,19 @@
         <v>67884</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>52035</v>
+        <v>51952</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>85856</v>
+        <v>85050</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02846752850077845</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02182131834144962</v>
+        <v>0.02178638527448333</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03600418272367372</v>
+        <v>0.03566634266338216</v>
       </c>
     </row>
     <row r="7">
@@ -5729,19 +5729,19 @@
         <v>76271</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>60590</v>
+        <v>59486</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>94393</v>
+        <v>97892</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0677335249167635</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05380772103730575</v>
+        <v>0.05282723889443769</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08382680041098693</v>
+        <v>0.08693407366078512</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -5750,19 +5750,19 @@
         <v>51547</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>37791</v>
+        <v>38639</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>68788</v>
+        <v>67188</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04095705264996886</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03002722125801656</v>
+        <v>0.0307010715012884</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05465599581915696</v>
+        <v>0.0533846001499359</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>118</v>
@@ -5771,19 +5771,19 @@
         <v>127818</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>105203</v>
+        <v>104443</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>150426</v>
+        <v>149897</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05360127632858368</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04411738476412798</v>
+        <v>0.04379874027828184</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06308176866452891</v>
+        <v>0.06286024017695353</v>
       </c>
     </row>
     <row r="8">
@@ -5800,19 +5800,19 @@
         <v>997838</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>973515</v>
+        <v>974172</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1017692</v>
+        <v>1019206</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8861423649579679</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8645420288328155</v>
+        <v>0.8651251551599375</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9037743063246936</v>
+        <v>0.905118302631697</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1080</v>
@@ -5821,19 +5821,19 @@
         <v>1145518</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1122092</v>
+        <v>1122377</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1163652</v>
+        <v>1164692</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9101779496776825</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8915647511015302</v>
+        <v>0.8917910442115038</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9245861758070494</v>
+        <v>0.9254126179643688</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2029</v>
@@ -5842,19 +5842,19 @@
         <v>2143356</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2113093</v>
+        <v>2112413</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2172256</v>
+        <v>2174801</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8988280113282888</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.886137239887443</v>
+        <v>0.8858517347751249</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.91094738254353</v>
+        <v>0.9120144319013216</v>
       </c>
     </row>
     <row r="9">
@@ -5949,16 +5949,16 @@
         <v>892</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7630</v>
+        <v>7563</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00311392758677719</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0009833591898786651</v>
+        <v>0.0009831429856493601</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008413296873345789</v>
+        <v>0.008338933322886174</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -5967,19 +5967,19 @@
         <v>10842</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5359</v>
+        <v>5475</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19157</v>
+        <v>19817</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01077187682474802</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005324698382039431</v>
+        <v>0.005439433851425019</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01903340116314104</v>
+        <v>0.01968950728996946</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -5988,19 +5988,19 @@
         <v>13666</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7426</v>
+        <v>7371</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22688</v>
+        <v>22515</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007142140995980508</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003880968913724019</v>
+        <v>0.003852208351599335</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0118577129706437</v>
+        <v>0.01176697742517682</v>
       </c>
     </row>
     <row r="11">
@@ -6017,19 +6017,19 @@
         <v>5700</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1980</v>
+        <v>1953</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14676</v>
+        <v>13449</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.006285601308959674</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002183251010463336</v>
+        <v>0.002153349037438526</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01618209653025697</v>
+        <v>0.01482993325168791</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -6038,19 +6038,19 @@
         <v>10360</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4986</v>
+        <v>5274</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>19302</v>
+        <v>19400</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01029352891242129</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.004954285408427188</v>
+        <v>0.005240197851862818</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01917807092370748</v>
+        <v>0.01927513603127777</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>15</v>
@@ -6059,19 +6059,19 @@
         <v>16061</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8855</v>
+        <v>9461</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>25742</v>
+        <v>26052</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.008393840370577972</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004627665855119773</v>
+        <v>0.004944833857273314</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01345376181415258</v>
+        <v>0.01361550578459573</v>
       </c>
     </row>
     <row r="12">
@@ -6088,19 +6088,19 @@
         <v>15061</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8381</v>
+        <v>8558</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>24481</v>
+        <v>24141</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01660700663893719</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.009241427837869165</v>
+        <v>0.009436305717827116</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02699377288206665</v>
+        <v>0.02661941688748989</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>17</v>
@@ -6109,19 +6109,19 @@
         <v>18077</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10674</v>
+        <v>10831</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29246</v>
+        <v>29045</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01796109246020628</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01060540150506684</v>
+        <v>0.01076152658964786</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02905757004225305</v>
+        <v>0.02885836350248904</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>31</v>
@@ -6130,19 +6130,19 @@
         <v>33139</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>23028</v>
+        <v>22859</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>47502</v>
+        <v>46464</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0173192791407452</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01203538656791768</v>
+        <v>0.01194694018121608</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02482590337483657</v>
+        <v>0.02428360418814663</v>
       </c>
     </row>
     <row r="13">
@@ -6159,19 +6159,19 @@
         <v>45796</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33491</v>
+        <v>34537</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>60910</v>
+        <v>63040</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05049706504907758</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03692879412855025</v>
+        <v>0.03808236342716224</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06716155150873564</v>
+        <v>0.0695110218712584</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>45</v>
@@ -6180,19 +6180,19 @@
         <v>47629</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34743</v>
+        <v>35649</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64298</v>
+        <v>62183</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04732263095557578</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03451936656936803</v>
+        <v>0.03542001847863731</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06388428343446796</v>
+        <v>0.06178338326813063</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>89</v>
@@ -6201,19 +6201,19 @@
         <v>93425</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>76560</v>
+        <v>76602</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>116060</v>
+        <v>112602</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04882725795259382</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04001305466499296</v>
+        <v>0.04003457100656174</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06065700501220134</v>
+        <v>0.05884950356454956</v>
       </c>
     </row>
     <row r="14">
@@ -6230,19 +6230,19 @@
         <v>837531</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>818682</v>
+        <v>818016</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>851630</v>
+        <v>852649</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9234963994162484</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9027124810062787</v>
+        <v>0.9019780178646321</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9390422713650242</v>
+        <v>0.9401659223444435</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>869</v>
@@ -6251,19 +6251,19 @@
         <v>919567</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>899508</v>
+        <v>898564</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>936865</v>
+        <v>935157</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9136508708470487</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8937211244282899</v>
+        <v>0.8927834981362731</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9308377136435054</v>
+        <v>0.9291410390023173</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1682</v>
@@ -6272,19 +6272,19 @@
         <v>1757098</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1730906</v>
+        <v>1732251</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1780022</v>
+        <v>1779435</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9183174815401025</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9046289541552456</v>
+        <v>0.9053315592871707</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9302986184232129</v>
+        <v>0.9299917132703264</v>
       </c>
     </row>
     <row r="15">
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7704</v>
+        <v>7135</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002749574774556738</v>
@@ -6388,7 +6388,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.009364359771170378</v>
+        <v>0.008672634064630909</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -6397,19 +6397,19 @@
         <v>6234</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2481</v>
+        <v>2763</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13846</v>
+        <v>13032</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008085606728986557</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003217436588320156</v>
+        <v>0.003582765204471681</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01795652011387468</v>
+        <v>0.01690147772052839</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -6418,19 +6418,19 @@
         <v>8497</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3814</v>
+        <v>3768</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16518</v>
+        <v>15987</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005331139977872222</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002393044604862565</v>
+        <v>0.002364275335967446</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01036431531609728</v>
+        <v>0.0100307780778969</v>
       </c>
     </row>
     <row r="17">
@@ -6450,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6415</v>
+        <v>6407</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.001300658864484763</v>
@@ -6459,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.007797218563688518</v>
+        <v>0.007787733860254736</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -6468,19 +6468,19 @@
         <v>5768</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1995</v>
+        <v>1919</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13987</v>
+        <v>14970</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.007481247937215996</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.002587385051260459</v>
+        <v>0.002488290617374726</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01813975556715117</v>
+        <v>0.01941490857798316</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -6489,19 +6489,19 @@
         <v>6839</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2777</v>
+        <v>2883</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15397</v>
+        <v>14850</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.004290819684812871</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.001742461919907981</v>
+        <v>0.001809199360854745</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.009660597708865144</v>
+        <v>0.009317835423689327</v>
       </c>
     </row>
     <row r="18">
@@ -6518,19 +6518,19 @@
         <v>18579</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10339</v>
+        <v>11035</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>28523</v>
+        <v>29213</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02258289122604542</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01256689091648883</v>
+        <v>0.01341327820903596</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03467008868861235</v>
+        <v>0.03550903013663944</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>10</v>
@@ -6539,19 +6539,19 @@
         <v>9840</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4760</v>
+        <v>5060</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17468</v>
+        <v>17952</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01276199311605546</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.00617334072609365</v>
+        <v>0.006562759253275438</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02265412054896125</v>
+        <v>0.0232824034779715</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>28</v>
@@ -6560,19 +6560,19 @@
         <v>28419</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>19567</v>
+        <v>19071</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>41707</v>
+        <v>40715</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01783155370734684</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01227709446808962</v>
+        <v>0.01196635124193367</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02616921979233253</v>
+        <v>0.02554635364352649</v>
       </c>
     </row>
     <row r="19">
@@ -6589,19 +6589,19 @@
         <v>32603</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>23024</v>
+        <v>22320</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>45069</v>
+        <v>43602</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03962930274905013</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02798620828214961</v>
+        <v>0.02712957646462916</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05478229670238328</v>
+        <v>0.05299810594310105</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -6610,19 +6610,19 @@
         <v>27108</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17953</v>
+        <v>17786</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39039</v>
+        <v>39101</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03515654745041995</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02328327743279532</v>
+        <v>0.02306641240430602</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05063023574536332</v>
+        <v>0.05071078481438273</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>56</v>
@@ -6631,19 +6631,19 @@
         <v>59711</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>45750</v>
+        <v>44514</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>75889</v>
+        <v>76120</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03746538965023465</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0287054866907417</v>
+        <v>0.02793001833532216</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0476163392983841</v>
+        <v>0.04776130318284174</v>
       </c>
     </row>
     <row r="20">
@@ -6660,19 +6660,19 @@
         <v>768187</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>751151</v>
+        <v>752927</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>780855</v>
+        <v>781240</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.933737572385863</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9130299390390531</v>
+        <v>0.9151893822329795</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9491362785534739</v>
+        <v>0.9496032756416027</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>682</v>
@@ -6681,19 +6681,19 @@
         <v>722108</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>705373</v>
+        <v>707021</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>734942</v>
+        <v>734804</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9365146047673221</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9148103453263845</v>
+        <v>0.9169485098924595</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9531593696717743</v>
+        <v>0.9529806060707765</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1416</v>
@@ -6702,19 +6702,19 @@
         <v>1490295</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1470371</v>
+        <v>1470703</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1510220</v>
+        <v>1508943</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9350810969797334</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9225799586888094</v>
+        <v>0.9227883312703854</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9475830662299642</v>
+        <v>0.9467817204785086</v>
       </c>
     </row>
     <row r="21">
@@ -6806,19 +6806,19 @@
         <v>3576</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11749</v>
+        <v>10290</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007073826160453597</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001814832808852669</v>
+        <v>0.001808776927086876</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02324024437619401</v>
+        <v>0.02035507646009384</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -6827,19 +6827,19 @@
         <v>4045</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1198</v>
+        <v>943</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10253</v>
+        <v>9646</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.008295236058325788</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00245613714463454</v>
+        <v>0.001934998325453872</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02102730879421642</v>
+        <v>0.01978380327249875</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -6848,19 +6848,19 @@
         <v>7621</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3082</v>
+        <v>3068</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>16186</v>
+        <v>15027</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.007673491993558817</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003103351290504318</v>
+        <v>0.003089524485838307</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01629791556004988</v>
+        <v>0.01513167687937856</v>
       </c>
     </row>
     <row r="23">
@@ -6877,19 +6877,19 @@
         <v>5017</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1970</v>
+        <v>1930</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>11279</v>
+        <v>11161</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.009924854727113873</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.003897370664889487</v>
+        <v>0.003818178341711587</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02231128721372747</v>
+        <v>0.02207812684693061</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -6901,7 +6901,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>13105</v>
+        <v>10410</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.005619498933584851</v>
@@ -6910,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02687720776971979</v>
+        <v>0.02135085019203102</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7</v>
@@ -6919,19 +6919,19 @@
         <v>7757</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3046</v>
+        <v>3060</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>15222</v>
+        <v>16615</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.007811088682448065</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.003067587450744687</v>
+        <v>0.003081330119209398</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01532771484753054</v>
+        <v>0.01673026240423281</v>
       </c>
     </row>
     <row r="24">
@@ -6948,19 +6948,19 @@
         <v>8712</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3403</v>
+        <v>3357</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16379</v>
+        <v>15783</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01723283718261064</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.006730909258059894</v>
+        <v>0.006640959633736552</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03239932127248819</v>
+        <v>0.03122085424111525</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>9</v>
@@ -6969,19 +6969,19 @@
         <v>10807</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4916</v>
+        <v>5480</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>19818</v>
+        <v>20952</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02216389110317601</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01008307758439953</v>
+        <v>0.01124002052243458</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0406456465412439</v>
+        <v>0.04297195845231767</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>17</v>
@@ -6990,19 +6990,19 @@
         <v>19518</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>11682</v>
+        <v>11621</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>30749</v>
+        <v>31383</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0196537972243738</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01176274130942515</v>
+        <v>0.01170203977330098</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03096197289637622</v>
+        <v>0.03160078396574451</v>
       </c>
     </row>
     <row r="25">
@@ -7019,19 +7019,19 @@
         <v>20478</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12348</v>
+        <v>12170</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>31264</v>
+        <v>31779</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04050694019660184</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02442602231176259</v>
+        <v>0.02407347715606548</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0618440474807643</v>
+        <v>0.06286137625884464</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -7040,19 +7040,19 @@
         <v>15029</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8408</v>
+        <v>8360</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>25305</v>
+        <v>24050</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03082271036286561</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0172440588782167</v>
+        <v>0.01714602037530846</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05189910469655674</v>
+        <v>0.04932566688786393</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>31</v>
@@ -7061,19 +7061,19 @@
         <v>35506</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>24979</v>
+        <v>25097</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>51119</v>
+        <v>50448</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03575235145342338</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02515226546413978</v>
+        <v>0.02527095918602561</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05147352825608898</v>
+        <v>0.05079771978845456</v>
       </c>
     </row>
     <row r="26">
@@ -7090,19 +7090,19 @@
         <v>467750</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>453478</v>
+        <v>454103</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>478567</v>
+        <v>478831</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9252615417332201</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8970296676693542</v>
+        <v>0.8982654428942105</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9466577900203396</v>
+        <v>0.9471806088695615</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>424</v>
@@ -7111,19 +7111,19 @@
         <v>454961</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>441305</v>
+        <v>442025</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>464816</v>
+        <v>464552</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9330986635420477</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9050902123253933</v>
+        <v>0.9065669431166982</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9533096864328549</v>
+        <v>0.9527680574269368</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>861</v>
@@ -7132,19 +7132,19 @@
         <v>922711</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>903695</v>
+        <v>904842</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>937706</v>
+        <v>938269</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.929109270646196</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9099610159675381</v>
+        <v>0.9111157566195751</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.94420828098496</v>
+        <v>0.9447751916553058</v>
       </c>
     </row>
     <row r="27">
@@ -7236,19 +7236,19 @@
         <v>23164</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>14712</v>
+        <v>14083</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>35492</v>
+        <v>34240</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.006891511722825341</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.004377018461506458</v>
+        <v>0.004189889321717172</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01055938919642976</v>
+        <v>0.01018695548651585</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>31</v>
@@ -7257,19 +7257,19 @@
         <v>33202</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>23263</v>
+        <v>23287</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>47991</v>
+        <v>46929</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.009422605997735983</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.006601802208518439</v>
+        <v>0.00660880015872344</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01361958848281159</v>
+        <v>0.01331830448407045</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>51</v>
@@ -7278,19 +7278,19 @@
         <v>56366</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>42121</v>
+        <v>41420</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>74598</v>
+        <v>72749</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.008186926419843477</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006117871038607703</v>
+        <v>0.006016152917057578</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01083502011102921</v>
+        <v>0.01056646064266611</v>
       </c>
     </row>
     <row r="29">
@@ -7307,19 +7307,19 @@
         <v>21796</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12842</v>
+        <v>13544</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>33216</v>
+        <v>32916</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.006484500454538291</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.003820530607060659</v>
+        <v>0.004029500949078381</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.00988216042023315</v>
+        <v>0.009793084007762493</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>26</v>
@@ -7328,19 +7328,19 @@
         <v>27831</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>18846</v>
+        <v>18095</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>41846</v>
+        <v>39688</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.007898410259113217</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.005348398535443447</v>
+        <v>0.005135177521672139</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01187566102343449</v>
+        <v>0.01126328214777472</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>46</v>
@@ -7349,19 +7349,19 @@
         <v>49627</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>36377</v>
+        <v>36923</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>66072</v>
+        <v>65173</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.007208139854010705</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.005283606866940263</v>
+        <v>0.005362968325486338</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.009596756522983401</v>
+        <v>0.009466114536321516</v>
       </c>
     </row>
     <row r="30">
@@ -7378,19 +7378,19 @@
         <v>69780</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>52824</v>
+        <v>53763</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>89020</v>
+        <v>87096</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02076061936440748</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01571593452882046</v>
+        <v>0.01599531885599921</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02648464252585112</v>
+        <v>0.02591223035068967</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>75</v>
@@ -7399,19 +7399,19 @@
         <v>79180</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>63886</v>
+        <v>63312</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>99671</v>
+        <v>100282</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02247074587055934</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01813053145931617</v>
+        <v>0.01796768742263725</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02828602697996679</v>
+        <v>0.028459337632626</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>139</v>
@@ -7420,19 +7420,19 @@
         <v>148960</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>125289</v>
+        <v>126679</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>174361</v>
+        <v>175435</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02163586254747999</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01819769797040718</v>
+        <v>0.0183996039463357</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02532529210620151</v>
+        <v>0.025481164000611</v>
       </c>
     </row>
     <row r="31">
@@ -7449,19 +7449,19 @@
         <v>175148</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>150008</v>
+        <v>150223</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>204053</v>
+        <v>204239</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05210893635489342</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04462944169301301</v>
+        <v>0.04469347994910623</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06070834711782772</v>
+        <v>0.0607636899753773</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>132</v>
@@ -7470,19 +7470,19 @@
         <v>141313</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>118188</v>
+        <v>117559</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>165623</v>
+        <v>167462</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04010367013439044</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03354104635117507</v>
+        <v>0.03336255062233114</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04700294860378512</v>
+        <v>0.04752486152716037</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>294</v>
@@ -7491,19 +7491,19 @@
         <v>316461</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>282939</v>
+        <v>280295</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>350490</v>
+        <v>351060</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04596463803388206</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04109576770304094</v>
+        <v>0.04071169579581611</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05090725351186525</v>
+        <v>0.05099005669684802</v>
       </c>
     </row>
     <row r="32">
@@ -7520,19 +7520,19 @@
         <v>3071306</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3036738</v>
+        <v>3039785</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3104998</v>
+        <v>3106210</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9137544321033355</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.903469872122433</v>
+        <v>0.904376670746696</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9237782716597734</v>
+        <v>0.9241388381293351</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3055</v>
@@ -7541,19 +7541,19 @@
         <v>3242154</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3209710</v>
+        <v>3204601</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3272846</v>
+        <v>3273552</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.920104567738201</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9108970895940769</v>
+        <v>0.9094472705285003</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9288148754638755</v>
+        <v>0.9290152159274603</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5988</v>
@@ -7562,19 +7562,19 @@
         <v>6313460</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6266338</v>
+        <v>6263060</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6359224</v>
+        <v>6361927</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9170044331447837</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9101601036182224</v>
+        <v>0.9096839758960241</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9236515091115508</v>
+        <v>0.9240440067484519</v>
       </c>
     </row>
     <row r="33">
@@ -7906,19 +7906,19 @@
         <v>3986</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1372</v>
+        <v>1299</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10077</v>
+        <v>9682</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007991335926812818</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002750403146353552</v>
+        <v>0.002603635043807519</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0202055127686896</v>
+        <v>0.01941310657279591</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -7927,19 +7927,19 @@
         <v>16121</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10608</v>
+        <v>10559</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25054</v>
+        <v>24098</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02585299463257918</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01701132923128448</v>
+        <v>0.01693321464267015</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04017706980221781</v>
+        <v>0.03864438934236279</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -7948,19 +7948,19 @@
         <v>20107</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13778</v>
+        <v>13423</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29808</v>
+        <v>29465</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01791558375248021</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.012276214471928</v>
+        <v>0.01195981274625164</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02655888390281068</v>
+        <v>0.02625403184980771</v>
       </c>
     </row>
     <row r="5">
@@ -7977,19 +7977,19 @@
         <v>3140</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>868</v>
+        <v>798</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7427</v>
+        <v>7486</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.006295459430878774</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001739566063730558</v>
+        <v>0.001599199238666885</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01489081386007607</v>
+        <v>0.01500978191319821</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -7998,19 +7998,19 @@
         <v>9589</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4833</v>
+        <v>4792</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17231</v>
+        <v>16854</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01537711359562296</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.007750471295694942</v>
+        <v>0.007684326189910843</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02763257380719921</v>
+        <v>0.02702857558109614</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -8019,19 +8019,19 @@
         <v>12729</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7297</v>
+        <v>6970</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21420</v>
+        <v>21449</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01134138422893961</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.006501368244452237</v>
+        <v>0.006210437042284706</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01908569258057509</v>
+        <v>0.01911136452282606</v>
       </c>
     </row>
     <row r="6">
@@ -8048,19 +8048,19 @@
         <v>10138</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5385</v>
+        <v>5181</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19061</v>
+        <v>18926</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02032784048914095</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01079707219309378</v>
+        <v>0.01038841514211097</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03821829053014516</v>
+        <v>0.03794812266360099</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>30</v>
@@ -8069,19 +8069,19 @@
         <v>20114</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13904</v>
+        <v>13770</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>27663</v>
+        <v>28393</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.0322563174543667</v>
+        <v>0.03225631745436668</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02229636413112266</v>
+        <v>0.02208167989303813</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04436096411701592</v>
+        <v>0.04553280365346556</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>40</v>
@@ -8090,19 +8090,19 @@
         <v>30253</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>21750</v>
+        <v>21313</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>40386</v>
+        <v>41562</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02695550948314359</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0193795676280105</v>
+        <v>0.01898989934162675</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03598425849306569</v>
+        <v>0.03703178353327978</v>
       </c>
     </row>
     <row r="7">
@@ -8119,19 +8119,19 @@
         <v>44551</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31494</v>
+        <v>32352</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59551</v>
+        <v>60147</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0893276650439306</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06314719138226919</v>
+        <v>0.06486817731722171</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.119403712996966</v>
+        <v>0.1205983691214882</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>85</v>
@@ -8140,19 +8140,19 @@
         <v>62885</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50076</v>
+        <v>49663</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>77730</v>
+        <v>79053</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1008448549264833</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08030375218564192</v>
+        <v>0.0796412054529546</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1246517998957167</v>
+        <v>0.1267720912436237</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>127</v>
@@ -8161,19 +8161,19 @@
         <v>107436</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>90705</v>
+        <v>89080</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>130401</v>
+        <v>128146</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.09572681579093388</v>
+        <v>0.09572681579093387</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08081956093900167</v>
+        <v>0.0793712242219175</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1161892272160857</v>
+        <v>0.1141798191514862</v>
       </c>
     </row>
     <row r="8">
@@ -8190,19 +8190,19 @@
         <v>436924</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>421546</v>
+        <v>419655</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>451472</v>
+        <v>451681</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8760576991092368</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8452242723782885</v>
+        <v>0.8414326264547318</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9052263636741146</v>
+        <v>0.9056454770435117</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>711</v>
@@ -8211,19 +8211,19 @@
         <v>514871</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>497468</v>
+        <v>496256</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>531912</v>
+        <v>530863</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8256687193909478</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7977611060115954</v>
+        <v>0.7958184620932436</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.852997708543361</v>
+        <v>0.851315068765757</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1105</v>
@@ -8232,19 +8232,19 @@
         <v>951795</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>926951</v>
+        <v>928784</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>972565</v>
+        <v>974714</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8480607067445027</v>
+        <v>0.8480607067445028</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8259237625079744</v>
+        <v>0.8275570134464818</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8665666996644822</v>
+        <v>0.8684811035267312</v>
       </c>
     </row>
     <row r="9">
@@ -8336,19 +8336,19 @@
         <v>9975</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4020</v>
+        <v>4186</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22200</v>
+        <v>23936</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01038864694765666</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004187267501120273</v>
+        <v>0.004360149107766905</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02312152057364269</v>
+        <v>0.02492977050357292</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -8357,19 +8357,19 @@
         <v>8481</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4349</v>
+        <v>4327</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15404</v>
+        <v>15415</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.007600610457235969</v>
+        <v>0.00760061045723597</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003897380703210074</v>
+        <v>0.003877904815583975</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01380492385385889</v>
+        <v>0.01381475103027846</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -8378,19 +8378,19 @@
         <v>18456</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10763</v>
+        <v>11166</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31299</v>
+        <v>32420</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00889006814488936</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005184450617446805</v>
+        <v>0.00537847978245092</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0150766336534445</v>
+        <v>0.01561668247903689</v>
       </c>
     </row>
     <row r="11">
@@ -8407,19 +8407,19 @@
         <v>6131</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2721</v>
+        <v>2966</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10977</v>
+        <v>12214</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.006385301251816083</v>
+        <v>0.006385301251816082</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002834030719809085</v>
+        <v>0.003089270182520078</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01143304680402436</v>
+        <v>0.0127210865439536</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>20</v>
@@ -8428,19 +8428,19 @@
         <v>13725</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8503</v>
+        <v>8253</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>22533</v>
+        <v>23188</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01229962036092534</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.007620091016859793</v>
+        <v>0.007395742552100635</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02019325657604846</v>
+        <v>0.02078050855412945</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>29</v>
@@ -8449,19 +8449,19 @@
         <v>19855</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>13134</v>
+        <v>13211</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>29418</v>
+        <v>30533</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.009564267266129394</v>
+        <v>0.009564267266129392</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.006326842534031439</v>
+        <v>0.006363764083885215</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01417085006163247</v>
+        <v>0.01470772897409043</v>
       </c>
     </row>
     <row r="12">
@@ -8478,19 +8478,19 @@
         <v>30324</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20516</v>
+        <v>20798</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>43902</v>
+        <v>45337</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.03158263852821368</v>
+        <v>0.03158263852821367</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02136823902355537</v>
+        <v>0.02166164347572114</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04572507312586342</v>
+        <v>0.04721882184302459</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>55</v>
@@ -8499,19 +8499,19 @@
         <v>37771</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>27744</v>
+        <v>28064</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>49741</v>
+        <v>50724</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03384975400761717</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02486373818574896</v>
+        <v>0.02515008830614382</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04457720579646224</v>
+        <v>0.04545749515510143</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>83</v>
@@ -8520,19 +8520,19 @@
         <v>68095</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>53290</v>
+        <v>53887</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>84735</v>
+        <v>85057</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03280122057064134</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02566976710445576</v>
+        <v>0.02595714665623856</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04081675061003442</v>
+        <v>0.0409717314284409</v>
       </c>
     </row>
     <row r="13">
@@ -8549,19 +8549,19 @@
         <v>97245</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>77968</v>
+        <v>77977</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>120965</v>
+        <v>122107</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1012826172539563</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08120492466703305</v>
+        <v>0.08121463852192019</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.125986799510814</v>
+        <v>0.1271763319177295</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>180</v>
@@ -8570,19 +8570,19 @@
         <v>124387</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>105518</v>
+        <v>108706</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>143630</v>
+        <v>144354</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.111472973405206</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09456275593167331</v>
+        <v>0.09742041967548215</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1287184158421381</v>
+        <v>0.1293672318741914</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>267</v>
@@ -8591,19 +8591,19 @@
         <v>221632</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>196899</v>
+        <v>193027</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>255576</v>
+        <v>250725</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1067599672719283</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09484597220518222</v>
+        <v>0.09298075102659299</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1231106845210801</v>
+        <v>0.1207737342377792</v>
       </c>
     </row>
     <row r="14">
@@ -8620,19 +8620,19 @@
         <v>816463</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>788316</v>
+        <v>791909</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>840426</v>
+        <v>841300</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8503607960183573</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8210451978822851</v>
+        <v>0.8247874387673616</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8753190664821702</v>
+        <v>0.8762287286926758</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1340</v>
@@ -8641,19 +8641,19 @@
         <v>931485</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>908771</v>
+        <v>908544</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>951742</v>
+        <v>951471</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8347770417690155</v>
+        <v>0.8347770417690156</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8144214402059802</v>
+        <v>0.8142176907364198</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.852930951055585</v>
+        <v>0.8526882995412625</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2118</v>
@@ -8662,19 +8662,19 @@
         <v>1747948</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1709399</v>
+        <v>1714660</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1778567</v>
+        <v>1783173</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8419844767464117</v>
+        <v>0.8419844767464116</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8234153895207982</v>
+        <v>0.8259496655074766</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8567337723403904</v>
+        <v>0.8589524667956028</v>
       </c>
     </row>
     <row r="15">
@@ -8766,19 +8766,19 @@
         <v>15189</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7933</v>
+        <v>7682</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27313</v>
+        <v>28085</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01451456863180871</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007580327951055761</v>
+        <v>0.007340597919466422</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02609944156620997</v>
+        <v>0.02683715988071248</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -8787,19 +8787,19 @@
         <v>6890</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3325</v>
+        <v>3297</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11610</v>
+        <v>12085</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.006576925684545631</v>
+        <v>0.006576925684545632</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003173951560752493</v>
+        <v>0.003147397796800904</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01108249781658483</v>
+        <v>0.01153545747654382</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -8808,19 +8808,19 @@
         <v>22079</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13326</v>
+        <v>13649</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>33860</v>
+        <v>34987</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.01054354423451662</v>
+        <v>0.01054354423451663</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006363619801090502</v>
+        <v>0.006517623715097809</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01616913869383348</v>
+        <v>0.0167073847008505</v>
       </c>
     </row>
     <row r="17">
@@ -8837,19 +8837,19 @@
         <v>2847</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8002</v>
+        <v>7854</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.00272015082809739</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0008032684802296107</v>
+        <v>0.0008064383053044298</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.00764622390634646</v>
+        <v>0.007504705559014472</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -8858,19 +8858,19 @@
         <v>9513</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4828</v>
+        <v>5214</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17096</v>
+        <v>17271</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.009080028197606007</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.00460848814258985</v>
+        <v>0.004977061522179283</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01631841707324228</v>
+        <v>0.01648530430107572</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -8879,19 +8879,19 @@
         <v>12359</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6225</v>
+        <v>7006</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>20192</v>
+        <v>21403</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.005901854561295996</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.00297264716251946</v>
+        <v>0.003345627952565912</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.009642076034900825</v>
+        <v>0.01022039578022352</v>
       </c>
     </row>
     <row r="18">
@@ -8908,19 +8908,19 @@
         <v>43579</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>30488</v>
+        <v>32004</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>57527</v>
+        <v>58498</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04164383310612126</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02913340979922054</v>
+        <v>0.03058270400115579</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05497183046271267</v>
+        <v>0.05589966003445188</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>70</v>
@@ -8929,19 +8929,19 @@
         <v>52477</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>40996</v>
+        <v>39886</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>66842</v>
+        <v>66427</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.05009025198849085</v>
+        <v>0.05009025198849086</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03913142011161261</v>
+        <v>0.03807215644507911</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06380260717804326</v>
+        <v>0.06340596747740274</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>113</v>
@@ -8950,19 +8950,19 @@
         <v>96056</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>78631</v>
+        <v>78854</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>117372</v>
+        <v>114695</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.04586938667088613</v>
+        <v>0.04586938667088612</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03754831104529789</v>
+        <v>0.03765517325765855</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05604826864549079</v>
+        <v>0.05477012668450494</v>
       </c>
     </row>
     <row r="19">
@@ -8979,19 +8979,19 @@
         <v>106292</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>88103</v>
+        <v>84989</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>130983</v>
+        <v>129428</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1015713903017916</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08419003166830732</v>
+        <v>0.08121409888970751</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1251652983148554</v>
+        <v>0.1236791026366864</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>173</v>
@@ -9000,19 +9000,19 @@
         <v>117792</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>100400</v>
+        <v>101560</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>139944</v>
+        <v>137511</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.112435059890784</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09583381358389099</v>
+        <v>0.09694118648873107</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1335803508562398</v>
+        <v>0.131257872837261</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>272</v>
@@ -9021,19 +9021,19 @@
         <v>224084</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>197813</v>
+        <v>195879</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>257211</v>
+        <v>254516</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1070062400762934</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09446087971441586</v>
+        <v>0.09353773958713042</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.12282508831799</v>
+        <v>0.1215384318219132</v>
       </c>
     </row>
     <row r="20">
@@ -9050,19 +9050,19 @@
         <v>878572</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>852077</v>
+        <v>849909</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>902537</v>
+        <v>903837</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8395500571321811</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.814231905199448</v>
+        <v>0.8121610206625113</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8624508493858465</v>
+        <v>0.8636932543889552</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1250</v>
@@ -9071,19 +9071,19 @@
         <v>860971</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>837714</v>
+        <v>837375</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>883440</v>
+        <v>883372</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8218177342385735</v>
+        <v>0.8218177342385736</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7996183127427838</v>
+        <v>0.7992951371810056</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8432656173614794</v>
+        <v>0.8432000909584964</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2122</v>
@@ -9092,19 +9092,19 @@
         <v>1739542</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1702832</v>
+        <v>1705452</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1773204</v>
+        <v>1770339</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8306789744570077</v>
+        <v>0.8306789744570079</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8131488510429513</v>
+        <v>0.814399898775068</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8467533097144385</v>
+        <v>0.8453850531633404</v>
       </c>
     </row>
     <row r="21">
@@ -9196,19 +9196,19 @@
         <v>9943</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5049</v>
+        <v>4973</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19112</v>
+        <v>18745</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01018831542228357</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005173217712208655</v>
+        <v>0.005095385393431759</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01958322528577791</v>
+        <v>0.01920777864231924</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -9217,19 +9217,19 @@
         <v>15637</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10159</v>
+        <v>10400</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24011</v>
+        <v>23253</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.01724810713526379</v>
+        <v>0.01724810713526378</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01120557571820931</v>
+        <v>0.01147084143006013</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02648450805620207</v>
+        <v>0.02564807050276661</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -9238,19 +9238,19 @@
         <v>25580</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17309</v>
+        <v>18537</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>35996</v>
+        <v>38092</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.01358823640703002</v>
+        <v>0.01358823640703001</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009194343389042733</v>
+        <v>0.009846949634572626</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01912084001545155</v>
+        <v>0.02023459088671077</v>
       </c>
     </row>
     <row r="23">
@@ -9267,19 +9267,19 @@
         <v>12558</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6221</v>
+        <v>6552</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>21483</v>
+        <v>22334</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01286740592225795</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.006374688342696832</v>
+        <v>0.006713546011073416</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02201236772337987</v>
+        <v>0.02288492897492723</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>18</v>
@@ -9288,19 +9288,19 @@
         <v>16313</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>9598</v>
+        <v>10037</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>29353</v>
+        <v>30181</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01799359593787782</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01058704925606738</v>
+        <v>0.01107130456790474</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03237712700160653</v>
+        <v>0.03328995288800636</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>29</v>
@@ -9309,19 +9309,19 @@
         <v>28871</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>18639</v>
+        <v>19022</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>42776</v>
+        <v>43474</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.01533612479024654</v>
+        <v>0.01533612479024653</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.009900843436654616</v>
+        <v>0.01010468992212254</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02272242334511703</v>
+        <v>0.0230930930707588</v>
       </c>
     </row>
     <row r="24">
@@ -9338,19 +9338,19 @@
         <v>51739</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>38680</v>
+        <v>39639</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>68563</v>
+        <v>69043</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0530150894864533</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03963359131218508</v>
+        <v>0.04061660569120273</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07025427312140514</v>
+        <v>0.07074626536456949</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>76</v>
@@ -9359,19 +9359,19 @@
         <v>55323</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>43609</v>
+        <v>43541</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>69960</v>
+        <v>70433</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06102170786715162</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04810112823516639</v>
+        <v>0.0480255698247269</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07716646817369732</v>
+        <v>0.07768801986988323</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>125</v>
@@ -9380,19 +9380,19 @@
         <v>107062</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>89116</v>
+        <v>87624</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>128498</v>
+        <v>126122</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05687099217538708</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0473381140540561</v>
+        <v>0.04654556160519333</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06825767177121038</v>
+        <v>0.066995539881962</v>
       </c>
     </row>
     <row r="25">
@@ -9409,19 +9409,19 @@
         <v>149561</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>127919</v>
+        <v>125323</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>176116</v>
+        <v>175520</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1532494331766107</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1310741879384851</v>
+        <v>0.1284140485337344</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1804594141832666</v>
+        <v>0.1798494806003043</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>210</v>
@@ -9430,19 +9430,19 @@
         <v>130079</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>113226</v>
+        <v>114054</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>148204</v>
+        <v>150418</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1434777888290041</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1248892304500416</v>
+        <v>0.1258021369144544</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1634706990231142</v>
+        <v>0.1659119223221591</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>360</v>
@@ -9451,19 +9451,19 @@
         <v>279639</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>250436</v>
+        <v>249799</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>314443</v>
+        <v>310699</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1485435126588959</v>
+        <v>0.1485435126588958</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1330306748330709</v>
+        <v>0.1326924554277577</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1670311653560201</v>
+        <v>0.1650422791860622</v>
       </c>
     </row>
     <row r="26">
@@ -9480,19 +9480,19 @@
         <v>752129</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>721723</v>
+        <v>723371</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>777879</v>
+        <v>780494</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7706797559923945</v>
+        <v>0.7706797559923946</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7395240759615168</v>
+        <v>0.7412129390773599</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7970650522653939</v>
+        <v>0.7997442378296812</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>991</v>
@@ -9501,19 +9501,19 @@
         <v>689260</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>663469</v>
+        <v>666454</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>709486</v>
+        <v>711571</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7602588002307028</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7318117797777555</v>
+        <v>0.7351037667637615</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7825689901734562</v>
+        <v>0.7848688084019871</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1718</v>
@@ -9522,19 +9522,19 @@
         <v>1441388</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1402846</v>
+        <v>1403896</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1477166</v>
+        <v>1477750</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7656611339684406</v>
+        <v>0.7656611339684404</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7451875428502602</v>
+        <v>0.7457452641589095</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7846659892401839</v>
+        <v>0.7849760294740225</v>
       </c>
     </row>
     <row r="27">
@@ -9626,19 +9626,19 @@
         <v>39092</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>26788</v>
+        <v>26762</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>57265</v>
+        <v>56344</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0112292989180196</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007694870348333931</v>
+        <v>0.007687270696131128</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01644933283584236</v>
+        <v>0.01618488042731949</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>68</v>
@@ -9647,19 +9647,19 @@
         <v>47130</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>36786</v>
+        <v>36387</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>59774</v>
+        <v>59294</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0127596634517941</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.009959045265757154</v>
+        <v>0.00985127500380396</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01618264465999085</v>
+        <v>0.01605272864227933</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>103</v>
@@ -9668,19 +9668,19 @@
         <v>86223</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>68820</v>
+        <v>70034</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>106163</v>
+        <v>106077</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01201713266437597</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009591690768059807</v>
+        <v>0.009760939727282534</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01479633051284956</v>
+        <v>0.01478435158046198</v>
       </c>
     </row>
     <row r="29">
@@ -9697,19 +9697,19 @@
         <v>24675</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>16367</v>
+        <v>16478</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>35802</v>
+        <v>35854</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.007087847528062134</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.004701346870060424</v>
+        <v>0.004733207569762729</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01028416175965395</v>
+        <v>0.01029895631730173</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>63</v>
@@ -9718,19 +9718,19 @@
         <v>49139</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>35942</v>
+        <v>36587</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>64771</v>
+        <v>64884</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01330358060001989</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.009730676349939954</v>
+        <v>0.009905418079127936</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0175355655734509</v>
+        <v>0.01756616365339267</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>90</v>
@@ -9739,19 +9739,19 @@
         <v>73814</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>59116</v>
+        <v>57093</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>93435</v>
+        <v>92328</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01028771537938627</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.008239184644905686</v>
+        <v>0.007957246213969482</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01302241320018004</v>
+        <v>0.01286805913659959</v>
       </c>
     </row>
     <row r="30">
@@ -9768,19 +9768,19 @@
         <v>135780</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>113945</v>
+        <v>112772</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>165598</v>
+        <v>161659</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03900293825429425</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03273086255912151</v>
+        <v>0.03239386939188833</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04756807933087427</v>
+        <v>0.04643668354250878</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>231</v>
@@ -9789,19 +9789,19 @@
         <v>165685</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>144607</v>
+        <v>143501</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>189172</v>
+        <v>190132</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04485638319228612</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03914969224464292</v>
+        <v>0.03885033924983975</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05121502467116856</v>
+        <v>0.05147482669235652</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>361</v>
@@ -9810,19 +9810,19 @@
         <v>301466</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>267429</v>
+        <v>267312</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>335078</v>
+        <v>335257</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04201629968081329</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03727256884996377</v>
+        <v>0.03725618846120895</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04670096455249696</v>
+        <v>0.04672591813414474</v>
       </c>
     </row>
     <row r="31">
@@ -9839,19 +9839,19 @@
         <v>397649</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>357278</v>
+        <v>357275</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>445217</v>
+        <v>440016</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1142248863567266</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1026283692950798</v>
+        <v>0.1026274997602703</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1278886100540696</v>
+        <v>0.1263946623171653</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>648</v>
@@ -9860,19 +9860,19 @@
         <v>435142</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>399294</v>
+        <v>402101</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>467497</v>
+        <v>473237</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.117807133576439</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1081019581942969</v>
+        <v>0.108861923273616</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1265667047948721</v>
+        <v>0.1281207220855268</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1026</v>
@@ -9881,19 +9881,19 @@
         <v>832791</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>782482</v>
+        <v>780816</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>886953</v>
+        <v>890465</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.1160690321044852</v>
+        <v>0.1160690321044851</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.109057197989203</v>
+        <v>0.1088250535489869</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1236177046906031</v>
+        <v>0.1241071925484168</v>
       </c>
     </row>
     <row r="32">
@@ -9910,19 +9910,19 @@
         <v>2884087</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2830047</v>
+        <v>2833190</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2933151</v>
+        <v>2933704</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8284550289428974</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8129318343191798</v>
+        <v>0.8138348143248941</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8425485723210684</v>
+        <v>0.8427075619940229</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4292</v>
@@ -9931,19 +9931,19 @@
         <v>2996586</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2952725</v>
+        <v>2950899</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3041310</v>
+        <v>3038674</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8112732391794608</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7993986520860243</v>
+        <v>0.7989043406181633</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8233814513774642</v>
+        <v>0.8226678368555036</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7063</v>
@@ -9952,19 +9952,19 @@
         <v>5880673</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5817707</v>
+        <v>5816566</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5947979</v>
+        <v>5944473</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8196098201709393</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8108339712162448</v>
+        <v>0.8106748841161175</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.828990374633836</v>
+        <v>0.8285018369310999</v>
       </c>
     </row>
     <row r="33">
